--- a/output/test/output.xlsx
+++ b/output/test/output.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>مبدا</t>
   </si>
@@ -24,7 +24,7 @@
     <t>مقصد</t>
   </si>
   <si>
-    <t>بندرامام خمینی</t>
+    <t>کرمانشاه</t>
   </si>
   <si>
     <t>نوع</t>
@@ -81,13 +81,16 @@
     <t>باغ یک - سواریان</t>
   </si>
   <si>
-    <t>سواریان - نورآباد</t>
-  </si>
-  <si>
-    <t>نورآباد - بندرامام خمینی</t>
-  </si>
-  <si>
-    <t>گاباری ۴.۷</t>
+    <t>سواریان - ملایر</t>
+  </si>
+  <si>
+    <t>ملایر - کرمانشاه</t>
+  </si>
+  <si>
+    <t>نامشخص</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -422,16 +425,16 @@
         <v>24</v>
       </c>
       <c r="C6" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="D6" t="n" s="6">
-        <v>335.4101966249685</v>
+        <v>25</v>
+      </c>
+      <c r="D6" t="s" s="6">
+        <v>25</v>
       </c>
       <c r="E6" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="F6" t="n" s="6">
-        <v>100.0</v>
+        <v>25</v>
+      </c>
+      <c r="F6" t="s" s="6">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/output/test/output.xlsx
+++ b/output/test/output.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>مبدا</t>
   </si>
@@ -24,7 +24,7 @@
     <t>مقصد</t>
   </si>
   <si>
-    <t>کرمانشاه</t>
+    <t>بندرامام خمینی</t>
   </si>
   <si>
     <t>نوع</t>
@@ -81,16 +81,13 @@
     <t>باغ یک - سواریان</t>
   </si>
   <si>
-    <t>سواریان - ملایر</t>
-  </si>
-  <si>
-    <t>ملایر - کرمانشاه</t>
-  </si>
-  <si>
-    <t>نامشخص</t>
-  </si>
-  <si>
-    <t/>
+    <t>سواریان - نورآباد</t>
+  </si>
+  <si>
+    <t>نورآباد - بندرامام خمینی</t>
+  </si>
+  <si>
+    <t>گاباری ۴.۷</t>
   </si>
 </sst>
 </file>
@@ -253,7 +250,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n" s="1">
-        <v>1300.0</v>
+        <v>1250.0</v>
       </c>
     </row>
     <row r="5">
@@ -348,7 +345,7 @@
         <v>17</v>
       </c>
       <c r="D2" t="n" s="2">
-        <v>35.35533905932738</v>
+        <v>25.0</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>18</v>
@@ -388,7 +385,7 @@
         <v>17</v>
       </c>
       <c r="D4" t="n" s="4">
-        <v>35.35533905932738</v>
+        <v>25.0</v>
       </c>
       <c r="E4" t="s" s="4">
         <v>18</v>
@@ -425,16 +422,16 @@
         <v>24</v>
       </c>
       <c r="C6" t="s" s="6">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s" s="6">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="D6" t="n" s="6">
+        <v>316.22776601683796</v>
       </c>
       <c r="E6" t="s" s="6">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s" s="6">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="F6" t="n" s="6">
+        <v>50.0</v>
       </c>
     </row>
   </sheetData>

--- a/output/test/output.xlsx
+++ b/output/test/output.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>مبدا</t>
   </si>
@@ -48,16 +48,19 @@
     <t>تیب گاباری</t>
   </si>
   <si>
-    <t>قابلیت عبور فضای مجاز</t>
+    <t>قابلیت عبور از فضای مجاز</t>
   </si>
   <si>
     <t>اندازه ورود به فضای آزاد</t>
   </si>
   <si>
-    <t>قابلیت عبور از فضای غیرمجاز</t>
-  </si>
-  <si>
-    <t>اندازه ورود به فضای غیرمجاز</t>
+    <t>قابلیت عبور از فضای آزاد</t>
+  </si>
+  <si>
+    <t>اندازه ورود به فضای سازه</t>
+  </si>
+  <si>
+    <t>قابلیت عبور از فضای سازه</t>
   </si>
   <si>
     <t>سرخس - بهرام</t>
@@ -250,7 +253,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n" s="1">
-        <v>1250.0</v>
+        <v>1350.0</v>
       </c>
     </row>
     <row r="5">
@@ -271,7 +274,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n" s="1">
-        <v>2500.0</v>
+        <v>2400.0</v>
       </c>
       <c r="B7" t="n" s="1">
         <v>3000.0</v>
@@ -279,7 +282,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n" s="1">
-        <v>3200.0</v>
+        <v>3000.0</v>
       </c>
       <c r="B8" t="n" s="1">
         <v>1500.0</v>
@@ -300,7 +303,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="true"/>
   </sheetViews>
@@ -312,6 +315,7 @@
     <col min="4" max="4" customWidth="true" width="21.0" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="21.0" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="21.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -333,105 +337,87 @@
       <c r="F1" t="s" s="1">
         <v>14</v>
       </c>
+      <c r="G1" t="s" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n" s="2">
-        <v>25.0</v>
+        <v>70.71067811865476</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="F2" t="n" s="2">
-        <v>0.0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s" s="3">
         <v>19</v>
-      </c>
-      <c r="B3" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n" s="3">
-        <v>25.0</v>
-      </c>
-      <c r="E3" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="F3" t="n" s="3">
-        <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n" s="4">
-        <v>25.0</v>
+        <v>70.71067811865476</v>
       </c>
       <c r="E4" t="s" s="4">
-        <v>18</v>
-      </c>
-      <c r="F4" t="n" s="4">
-        <v>0.0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s" s="5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s" s="5">
-        <v>17</v>
-      </c>
-      <c r="D5" t="n" s="5">
-        <v>25.0</v>
-      </c>
-      <c r="E5" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="F5" t="n" s="5">
-        <v>0.0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s" s="6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s" s="6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" t="n" s="6">
-        <v>316.22776601683796</v>
+        <v>340.94574348420895</v>
       </c>
       <c r="E6" t="s" s="6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" t="n" s="6">
-        <v>50.0</v>
+        <v>150.0</v>
+      </c>
+      <c r="G6" t="s" s="6">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/output/test/output.xlsx
+++ b/output/test/output.xlsx
@@ -13,20 +13,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>مبدا</t>
   </si>
   <si>
+    <t>تهران</t>
+  </si>
+  <si>
+    <t>مقصد</t>
+  </si>
+  <si>
     <t>سرخس</t>
   </si>
   <si>
-    <t>مقصد</t>
-  </si>
-  <si>
-    <t>بندرامام خمینی</t>
-  </si>
-  <si>
     <t>نوع</t>
   </si>
   <si>
@@ -63,34 +63,43 @@
     <t>قابلیت عبور از فضای سازه</t>
   </si>
   <si>
-    <t>سرخس - بهرام</t>
+    <t>تهران - ری</t>
+  </si>
+  <si>
+    <t>گاباری 4.9</t>
+  </si>
+  <si>
+    <t>غیر قابل عبور</t>
+  </si>
+  <si>
+    <t>قابل عبور</t>
+  </si>
+  <si>
+    <t>ری - سمنان</t>
+  </si>
+  <si>
+    <t>گاباری 5.4</t>
+  </si>
+  <si>
+    <t>سمنان - میاندره</t>
+  </si>
+  <si>
+    <t>میاندره - گرداب</t>
+  </si>
+  <si>
+    <t>گرداب - هفتخوان</t>
   </si>
   <si>
     <t>گاباری 5.2</t>
   </si>
   <si>
-    <t>غیر قابل عبور</t>
-  </si>
-  <si>
-    <t>قابل عبور</t>
-  </si>
-  <si>
-    <t>بهرام - باغ یک</t>
-  </si>
-  <si>
-    <t>گاباری 5.4</t>
-  </si>
-  <si>
-    <t>باغ یک - سواریان</t>
-  </si>
-  <si>
-    <t>سواریان - نورآباد</t>
-  </si>
-  <si>
-    <t>نورآباد - بندرامام خمینی</t>
-  </si>
-  <si>
-    <t>گاباری ۴.۷</t>
+    <t>هفتخوان - شاهرود</t>
+  </si>
+  <si>
+    <t>شاهرود - بسطام</t>
+  </si>
+  <si>
+    <t>بسطام - سرخس</t>
   </si>
 </sst>
 </file>
@@ -98,13 +107,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="B Zar"/>
+      <sz val="11.0"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <name val="B Zar"/>
+      <sz val="11.0"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <name val="B Zar"/>
+      <sz val="11.0"/>
+      <charset val="178"/>
     </font>
     <font>
       <name val="B Zar"/>
@@ -188,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
@@ -206,6 +230,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -303,7 +336,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="true"/>
   </sheetViews>
@@ -352,7 +385,7 @@
         <v>18</v>
       </c>
       <c r="D2" t="n" s="2">
-        <v>70.71067811865476</v>
+        <v>353.5533905932738</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>19</v>
@@ -380,7 +413,7 @@
         <v>18</v>
       </c>
       <c r="D4" t="n" s="4">
-        <v>70.71067811865476</v>
+        <v>353.5533905932738</v>
       </c>
       <c r="E4" t="s" s="4">
         <v>19</v>
@@ -408,16 +441,49 @@
         <v>18</v>
       </c>
       <c r="D6" t="n" s="6">
-        <v>340.94574348420895</v>
+        <v>70.71067811865476</v>
       </c>
       <c r="E6" t="s" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s" s="7">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="8">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s" s="8">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="F6" t="n" s="6">
-        <v>150.0</v>
-      </c>
-      <c r="G6" t="s" s="6">
-        <v>18</v>
+      <c r="D8" t="n" s="8">
+        <v>353.5533905932738</v>
+      </c>
+      <c r="E8" t="s" s="8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s" s="9">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s" s="9">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/output/test/output.xlsx
+++ b/output/test/output.xlsx
@@ -13,18 +13,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t>مبدا</t>
   </si>
   <si>
-    <t>تهران</t>
+    <t>سرخس</t>
   </si>
   <si>
     <t>مقصد</t>
   </si>
   <si>
-    <t>سرخس</t>
+    <t>تبریز</t>
   </si>
   <si>
     <t>نوع</t>
@@ -63,7 +63,16 @@
     <t>قابلیت عبور از فضای سازه</t>
   </si>
   <si>
-    <t>تهران - ری</t>
+    <t>سرخس - بسطام</t>
+  </si>
+  <si>
+    <t>گاباری 5.4</t>
+  </si>
+  <si>
+    <t>قابل عبور</t>
+  </si>
+  <si>
+    <t>بسطام - شاهرود</t>
   </si>
   <si>
     <t>گاباری 4.9</t>
@@ -72,34 +81,43 @@
     <t>غیر قابل عبور</t>
   </si>
   <si>
-    <t>قابل عبور</t>
-  </si>
-  <si>
-    <t>ری - سمنان</t>
-  </si>
-  <si>
-    <t>گاباری 5.4</t>
-  </si>
-  <si>
-    <t>سمنان - میاندره</t>
-  </si>
-  <si>
-    <t>میاندره - گرداب</t>
-  </si>
-  <si>
-    <t>گرداب - هفتخوان</t>
+    <t>شاهرود - هفتخوان</t>
+  </si>
+  <si>
+    <t>هفتخوان - گرداب</t>
   </si>
   <si>
     <t>گاباری 5.2</t>
   </si>
   <si>
-    <t>هفتخوان - شاهرود</t>
-  </si>
-  <si>
-    <t>شاهرود - بسطام</t>
-  </si>
-  <si>
-    <t>بسطام - سرخس</t>
+    <t>گرداب - میاندره</t>
+  </si>
+  <si>
+    <t>میاندره - سمنان</t>
+  </si>
+  <si>
+    <t>سمنان - ورامین</t>
+  </si>
+  <si>
+    <t>ورامین - بهرام</t>
+  </si>
+  <si>
+    <t>بهرام - ری</t>
+  </si>
+  <si>
+    <t>ری - نیک پسندی</t>
+  </si>
+  <si>
+    <t>نیک پسندی - سیاه چشمه</t>
+  </si>
+  <si>
+    <t>سیاه چشمه - خرم پی</t>
+  </si>
+  <si>
+    <t>خرم پی - پل دختر</t>
+  </si>
+  <si>
+    <t>پل دختر - تبریز</t>
   </si>
 </sst>
 </file>
@@ -107,13 +125,43 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="10">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="B Zar"/>
+      <sz val="11.0"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <name val="B Zar"/>
+      <sz val="11.0"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <name val="B Zar"/>
+      <sz val="11.0"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <name val="B Zar"/>
+      <sz val="11.0"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <name val="B Zar"/>
+      <sz val="11.0"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <name val="B Zar"/>
+      <sz val="11.0"/>
+      <charset val="178"/>
     </font>
     <font>
       <name val="B Zar"/>
@@ -212,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
@@ -239,6 +287,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -247,7 +313,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="true"/>
   </sheetViews>
@@ -286,7 +352,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n" s="1">
-        <v>1350.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
@@ -299,34 +365,18 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="1">
-        <v>1500.0</v>
+        <v>2000.0</v>
       </c>
       <c r="B6" t="n" s="1">
-        <v>3500.0</v>
+        <v>4600.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n" s="1">
-        <v>2400.0</v>
+        <v>2500.0</v>
       </c>
       <c r="B7" t="n" s="1">
-        <v>3000.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n" s="1">
-        <v>3000.0</v>
-      </c>
-      <c r="B8" t="n" s="1">
-        <v>1500.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n" s="1">
-        <v>2500.0</v>
-      </c>
-      <c r="B9" t="n" s="1">
-        <v>0.0</v>
+        <v>2000.0</v>
       </c>
     </row>
   </sheetData>
@@ -336,7 +386,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="true"/>
   </sheetViews>
@@ -384,22 +434,22 @@
       <c r="C2" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="D2" t="n" s="2">
-        <v>353.5533905932738</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>19</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s" s="3">
         <v>20</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="C3" t="s" s="3">
         <v>21</v>
       </c>
-      <c r="C3" t="s" s="3">
-        <v>19</v>
+      <c r="D3" t="n" s="3">
+        <v>282.842712474619</v>
+      </c>
+      <c r="E3" t="s" s="3">
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -412,39 +462,33 @@
       <c r="C4" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D4" t="n" s="4">
-        <v>353.5533905932738</v>
-      </c>
-      <c r="E4" t="s" s="4">
-        <v>19</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="5">
         <v>23</v>
       </c>
       <c r="B5" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C5" t="s" s="5">
-        <v>19</v>
+      <c r="D5" t="n" s="5">
+        <v>70.71067811865476</v>
+      </c>
+      <c r="E5" t="s" s="5">
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s" s="6">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s" s="6">
         <v>18</v>
-      </c>
-      <c r="D6" t="n" s="6">
-        <v>70.71067811865476</v>
-      </c>
-      <c r="E6" t="s" s="6">
-        <v>19</v>
       </c>
     </row>
     <row r="7">
@@ -452,10 +496,16 @@
         <v>26</v>
       </c>
       <c r="B7" t="s" s="7">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="C7" t="s" s="7">
-        <v>19</v>
+      <c r="D7" t="n" s="7">
+        <v>282.842712474619</v>
+      </c>
+      <c r="E7" t="s" s="7">
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -468,22 +518,106 @@
       <c r="C8" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="D8" t="n" s="8">
-        <v>353.5533905932738</v>
-      </c>
-      <c r="E8" t="s" s="8">
-        <v>19</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="9">
         <v>28</v>
       </c>
       <c r="B9" t="s" s="9">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s" s="9">
         <v>21</v>
       </c>
-      <c r="C9" t="s" s="9">
-        <v>19</v>
+      <c r="D9" t="n" s="9">
+        <v>70.71067811865476</v>
+      </c>
+      <c r="E9" t="s" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="10">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s" s="10">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="11">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s" s="11">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s" s="11">
+        <v>21</v>
+      </c>
+      <c r="D11" t="n" s="11">
+        <v>282.842712474619</v>
+      </c>
+      <c r="E11" t="s" s="11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s" s="12">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="13">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s" s="13">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s" s="13">
+        <v>21</v>
+      </c>
+      <c r="D13" t="n" s="13">
+        <v>282.842712474619</v>
+      </c>
+      <c r="E13" t="s" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="14">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s" s="14">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s" s="14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="15">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s" s="15">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s" s="15">
+        <v>21</v>
+      </c>
+      <c r="D15" t="n" s="15">
+        <v>282.842712474619</v>
+      </c>
+      <c r="E15" t="s" s="15">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
